--- a/data/trans_orig/P34A_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Dificultad-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre / solo 2023 en 2023 (tasa de respuesta: 99,76%)</t>
+          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P34A_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>32742</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22182</v>
+        <v>21131</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47088</v>
+        <v>46920</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06592455984112673</v>
+        <v>0.06592455984112672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04466260671813199</v>
+        <v>0.04254640048324177</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09481007308403609</v>
+        <v>0.09447300132083758</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -762,19 +762,19 @@
         <v>26186</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18088</v>
+        <v>18326</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38282</v>
+        <v>37019</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04227811751246786</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02920349331497217</v>
+        <v>0.029587380790689</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06180769452416997</v>
+        <v>0.05976792654104714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -783,19 +783,19 @@
         <v>58928</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44550</v>
+        <v>44968</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75705</v>
+        <v>76254</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05280126351668544</v>
+        <v>0.05280126351668545</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03991813986024527</v>
+        <v>0.04029302241899364</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06783453075922519</v>
+        <v>0.06832593160514135</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>53388</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38714</v>
+        <v>37631</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74707</v>
+        <v>72324</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1074954671475059</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07794871573603342</v>
+        <v>0.07576915637520719</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1504196836653781</v>
+        <v>0.1456220901036014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -833,19 +833,19 @@
         <v>20396</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13849</v>
+        <v>13897</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28849</v>
+        <v>29961</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03293031066587229</v>
+        <v>0.0329303106658723</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02236025914265711</v>
+        <v>0.02243728752837623</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04657799499490161</v>
+        <v>0.04837237555582143</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -854,19 +854,19 @@
         <v>73784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58132</v>
+        <v>58033</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>97610</v>
+        <v>97129</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06611331627735804</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05208865265533494</v>
+        <v>0.0519994030844227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08746154545728975</v>
+        <v>0.08703086221839704</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>184711</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>160768</v>
+        <v>162329</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>208234</v>
+        <v>208754</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3719108589768257</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3237016380228043</v>
+        <v>0.326844625282304</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4192723342612143</v>
+        <v>0.4203201089092969</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>332</v>
@@ -904,19 +904,19 @@
         <v>248382</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>226420</v>
+        <v>223430</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>271866</v>
+        <v>270898</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4010222028631302</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.365562851131575</v>
+        <v>0.3607354968326981</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4389371414853721</v>
+        <v>0.4373740823268961</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>502</v>
@@ -925,19 +925,19 @@
         <v>433094</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>401828</v>
+        <v>398735</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>469165</v>
+        <v>465383</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3880670649258139</v>
+        <v>0.388067064925814</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3600522718095603</v>
+        <v>0.357280241774117</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4203885861203371</v>
+        <v>0.4169994297475733</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>118881</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100239</v>
+        <v>98705</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140436</v>
+        <v>141274</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2393625411618029</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2018273287862313</v>
+        <v>0.1987390115366729</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.282764528172127</v>
+        <v>0.2844514283825477</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>289</v>
@@ -975,19 +975,19 @@
         <v>197581</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>177935</v>
+        <v>177679</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>218415</v>
+        <v>218888</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3190016969991076</v>
+        <v>0.3190016969991077</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2872822564139395</v>
+        <v>0.2868690887847367</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3526388395599402</v>
+        <v>0.3534027613823824</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>408</v>
@@ -996,19 +996,19 @@
         <v>316462</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>287869</v>
+        <v>288727</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>346618</v>
+        <v>348903</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2835606588555855</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2579410575063301</v>
+        <v>0.2587094885280035</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3105818654413368</v>
+        <v>0.312629696985812</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>106933</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86740</v>
+        <v>88307</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>127137</v>
+        <v>127825</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2153065728727388</v>
+        <v>0.2153065728727387</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1746477046971479</v>
+        <v>0.1778041115019695</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2559867950096558</v>
+        <v>0.2573720755500083</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>174</v>
@@ -1046,19 +1046,19 @@
         <v>126828</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>109785</v>
+        <v>109572</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>147965</v>
+        <v>147241</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.204767671959422</v>
+        <v>0.2047676719594221</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1772516911299734</v>
+        <v>0.1769075625653873</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2388940803055946</v>
+        <v>0.2377258790409542</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>271</v>
@@ -1067,19 +1067,19 @@
         <v>233761</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>205790</v>
+        <v>205818</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>264223</v>
+        <v>261377</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.209457696424557</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1843946254778542</v>
+        <v>0.1844203556651596</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2367528908755909</v>
+        <v>0.2342032909620972</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>109143</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88785</v>
+        <v>86512</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>135923</v>
+        <v>134312</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1138292087641108</v>
+        <v>0.1138292087641109</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09259752525123087</v>
+        <v>0.09022634056473701</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1417586897234721</v>
+        <v>0.140078643368424</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -1192,19 +1192,19 @@
         <v>60525</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49020</v>
+        <v>47561</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76088</v>
+        <v>76923</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05433987675181914</v>
+        <v>0.05433987675181916</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04401050422864543</v>
+        <v>0.04270064939090782</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06831254652020365</v>
+        <v>0.06906250671611905</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>158</v>
@@ -1213,19 +1213,19 @@
         <v>169668</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143632</v>
+        <v>142432</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200058</v>
+        <v>201318</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08186034944460696</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06929891298923388</v>
+        <v>0.06871989216843706</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09652292373842618</v>
+        <v>0.09713083104651614</v>
       </c>
     </row>
     <row r="11">
@@ -1245,16 +1245,16 @@
         <v>96286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149308</v>
+        <v>148087</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1244633306595709</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1004200846665732</v>
+        <v>0.100420241808383</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1557186795131089</v>
+        <v>0.1544448396753308</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -1263,19 +1263,19 @@
         <v>55041</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>42936</v>
+        <v>43796</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69920</v>
+        <v>71162</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04941699838820852</v>
+        <v>0.04941699838820851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03854885716368427</v>
+        <v>0.03932029979524301</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06277485866363362</v>
+        <v>0.06388977563043655</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>154</v>
@@ -1284,19 +1284,19 @@
         <v>174381</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>147475</v>
+        <v>148750</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>203213</v>
+        <v>209896</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.08413432447183601</v>
+        <v>0.084134324471836</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07115270987451518</v>
+        <v>0.07176823605442309</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09804514851559322</v>
+        <v>0.1012694248498442</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>358940</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>323464</v>
+        <v>328211</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>392208</v>
+        <v>391619</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.374351281087339</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3373519251617667</v>
+        <v>0.3423025799895718</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.409048136258076</v>
+        <v>0.4084336776568337</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>719</v>
@@ -1334,19 +1334,19 @@
         <v>506439</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>477477</v>
+        <v>477019</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>537569</v>
+        <v>535196</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4546878902194828</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4286853570685845</v>
+        <v>0.4282742826594071</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4826366187508883</v>
+        <v>0.4805064181782688</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1098</v>
@@ -1355,19 +1355,19 @@
         <v>865379</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>818039</v>
+        <v>821662</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>912620</v>
+        <v>910826</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4175232191252518</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3946830421688946</v>
+        <v>0.3964306602982466</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.440315573200083</v>
+        <v>0.439450318928674</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>205151</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>180056</v>
+        <v>177583</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>232535</v>
+        <v>232055</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2139588052082655</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1877868711116536</v>
+        <v>0.1852072121497379</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2425187252854799</v>
+        <v>0.2420183022543681</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>405</v>
@@ -1405,19 +1405,19 @@
         <v>272028</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>249344</v>
+        <v>246936</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>300385</v>
+        <v>297980</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2442306572757877</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2238647682507269</v>
+        <v>0.2217022017266654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2696894265707048</v>
+        <v>0.2675302290246311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>611</v>
@@ -1426,19 +1426,19 @@
         <v>477179</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>441942</v>
+        <v>441670</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>515014</v>
+        <v>514375</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2302265383858291</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2132256944201771</v>
+        <v>0.2130944042189163</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2484811406447914</v>
+        <v>0.2481727352212631</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>166259</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143001</v>
+        <v>143552</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>192845</v>
+        <v>196783</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1733973742807138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1491403318246902</v>
+        <v>0.1497159260017498</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2011249903911792</v>
+        <v>0.2052317159389677</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>333</v>
@@ -1476,19 +1476,19 @@
         <v>219783</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>198337</v>
+        <v>197852</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>243552</v>
+        <v>244370</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1973245773647019</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1780693625348337</v>
+        <v>0.1776345975420728</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2186645840889084</v>
+        <v>0.2193989180335173</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>492</v>
@@ -1497,19 +1497,19 @@
         <v>386042</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>350482</v>
+        <v>351602</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>419535</v>
+        <v>422861</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1862555685724763</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1690984591867221</v>
+        <v>0.1696388089617262</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2024150302185884</v>
+        <v>0.2040195905020419</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>146500</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>120129</v>
+        <v>118517</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>175385</v>
+        <v>175686</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1401836379979136</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1149494940939835</v>
+        <v>0.1134075157065012</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1678237656886671</v>
+        <v>0.1681116830635113</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -1622,19 +1622,19 @@
         <v>87227</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71305</v>
+        <v>70997</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>106937</v>
+        <v>106016</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08332289117881944</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06811359419467271</v>
+        <v>0.06781933521073624</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1021506725113156</v>
+        <v>0.1012715104089234</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>212</v>
@@ -1643,19 +1643,19 @@
         <v>233727</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>204080</v>
+        <v>202423</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>270096</v>
+        <v>269702</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.111728811243208</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09755670370180733</v>
+        <v>0.09676476123567702</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.12911481409494</v>
+        <v>0.1289264501119993</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>142909</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>120605</v>
+        <v>116606</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>173353</v>
+        <v>171939</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1367481168598203</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1154050795458209</v>
+        <v>0.1115789592991125</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1658795688678338</v>
+        <v>0.1645263820413546</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>87</v>
@@ -1693,19 +1693,19 @@
         <v>73751</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59811</v>
+        <v>58505</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>91188</v>
+        <v>91843</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.07044993285887051</v>
+        <v>0.0704499328588705</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05713396203342104</v>
+        <v>0.05588669548735269</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08710690094645344</v>
+        <v>0.08773244440615996</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>201</v>
@@ -1714,19 +1714,19 @@
         <v>216660</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>188249</v>
+        <v>185897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>249146</v>
+        <v>248158</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1035705128810924</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08998905008323474</v>
+        <v>0.08886460048702917</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1190998474215255</v>
+        <v>0.1186276050158339</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>424309</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>391662</v>
+        <v>392415</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>458759</v>
+        <v>459525</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4060156548827956</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3747766188219794</v>
+        <v>0.3754966897488485</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4389804635575536</v>
+        <v>0.4397136074781832</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>756</v>
@@ -1764,19 +1764,19 @@
         <v>493738</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>464895</v>
+        <v>467813</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>522016</v>
+        <v>521919</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4716395622188438</v>
+        <v>0.4716395622188437</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.444087445039693</v>
+        <v>0.4468753678485289</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4986519672201952</v>
+        <v>0.4985591018163673</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1215</v>
@@ -1785,19 +1785,19 @@
         <v>918046</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>871561</v>
+        <v>871331</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>960007</v>
+        <v>960497</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.438855830551875</v>
+        <v>0.4388558305518751</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4166343784825411</v>
+        <v>0.4165245485683236</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4589141736425806</v>
+        <v>0.4591486972536655</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>192261</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>168869</v>
+        <v>167655</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>220155</v>
+        <v>218423</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1839722603981001</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1615890617353916</v>
+        <v>0.1604271703629647</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2106636926080721</v>
+        <v>0.2090066782675198</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>309</v>
@@ -1835,19 +1835,19 @@
         <v>201768</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>182331</v>
+        <v>180325</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>225944</v>
+        <v>224812</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1927378907815956</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1741708932542168</v>
+        <v>0.1722539662104444</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2158310513565583</v>
+        <v>0.2147498638950308</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>511</v>
@@ -1856,19 +1856,19 @@
         <v>394030</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>362553</v>
+        <v>362141</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>429309</v>
+        <v>432383</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1883588453079273</v>
+        <v>0.1883588453079274</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.173312107242172</v>
+        <v>0.1731150360663382</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2052237423698505</v>
+        <v>0.2066928823578083</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>139076</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>117679</v>
+        <v>118645</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162872</v>
+        <v>164218</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1330803298613704</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1126059479454269</v>
+        <v>0.1135302847790604</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1558503680912941</v>
+        <v>0.1571380426731942</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -1906,19 +1906,19 @@
         <v>190370</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>170338</v>
+        <v>168206</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>212438</v>
+        <v>211218</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1818497229618707</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1627140911034199</v>
+        <v>0.160677318123643</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2029303346768128</v>
+        <v>0.2017649220589987</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>404</v>
@@ -1927,19 +1927,19 @@
         <v>329446</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>297708</v>
+        <v>300964</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>363187</v>
+        <v>364910</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1574860000158972</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1423142296081326</v>
+        <v>0.143870395231857</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1736152805706413</v>
+        <v>0.1744386633801648</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>134227</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>107976</v>
+        <v>109834</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>160157</v>
+        <v>161205</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1381334104217065</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1111184540178943</v>
+        <v>0.1130298039819052</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1648172429825998</v>
+        <v>0.1658958606686438</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>114</v>
@@ -2052,19 +2052,19 @@
         <v>84396</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69633</v>
+        <v>69883</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>101288</v>
+        <v>102635</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09303164807218064</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07675835360841203</v>
+        <v>0.07703356671174034</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1116522186856798</v>
+        <v>0.1131373570494774</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>223</v>
@@ -2073,19 +2073,19 @@
         <v>218623</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>193703</v>
+        <v>191317</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>252116</v>
+        <v>250500</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1163572829251202</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1030939990718329</v>
+        <v>0.1018243925837636</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1341833878756217</v>
+        <v>0.1333228728609988</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>131535</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>108289</v>
+        <v>108827</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>161109</v>
+        <v>161402</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1353622883459047</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1114403473419931</v>
+        <v>0.1119933488898199</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1657975181739305</v>
+        <v>0.1660991625932288</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>92</v>
@@ -2123,19 +2123,19 @@
         <v>84011</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>67783</v>
+        <v>66392</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>103325</v>
+        <v>106600</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.09260787545599564</v>
+        <v>0.09260787545599565</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07471901007511998</v>
+        <v>0.07318591106802512</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.113897779521708</v>
+        <v>0.1175083097272506</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>195</v>
@@ -2144,19 +2144,19 @@
         <v>215546</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>184788</v>
+        <v>184626</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>251622</v>
+        <v>252813</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1147195130388741</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09834918074216463</v>
+        <v>0.09826294471992836</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1339201312527471</v>
+        <v>0.1345539705627804</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>481992</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>447167</v>
+        <v>445951</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>515774</v>
+        <v>514982</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4960179991198493</v>
+        <v>0.4960179991198494</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.460179936337155</v>
+        <v>0.4589285542421377</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5307832890090769</v>
+        <v>0.5299683384104881</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>742</v>
@@ -2194,19 +2194,19 @@
         <v>455839</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>428071</v>
+        <v>430105</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>484812</v>
+        <v>483385</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5024831576951452</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.471873607944839</v>
+        <v>0.4741161772077996</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5344208974766023</v>
+        <v>0.5328482348748962</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1254</v>
@@ -2215,19 +2215,19 @@
         <v>937831</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>899611</v>
+        <v>895092</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>984573</v>
+        <v>978811</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4991395205435631</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4787980457589495</v>
+        <v>0.4763925916364541</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5240169982516885</v>
+        <v>0.5209506039932822</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>120867</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>101004</v>
+        <v>101544</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>144308</v>
+        <v>143640</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1243838562865452</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1039433667797733</v>
+        <v>0.1044985006761538</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1485073283925212</v>
+        <v>0.1478195357052823</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>169</v>
@@ -2265,19 +2265,19 @@
         <v>125765</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>106250</v>
+        <v>106055</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>147708</v>
+        <v>147599</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1386344502396431</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1171218478910494</v>
+        <v>0.116906900143397</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1628226730169026</v>
+        <v>0.1627024470308428</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>290</v>
@@ -2286,19 +2286,19 @@
         <v>246632</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>220355</v>
+        <v>217103</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>278813</v>
+        <v>279816</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1312643579489821</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1172792343925469</v>
+        <v>0.1155482784287605</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1483918744587692</v>
+        <v>0.1489259183404019</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>103102</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>84829</v>
+        <v>83728</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>127824</v>
+        <v>125146</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1061024458259942</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08729766901299668</v>
+        <v>0.08616409656327126</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1315434548538908</v>
+        <v>0.128787731339551</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>201</v>
@@ -2336,19 +2336,19 @@
         <v>157161</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>137531</v>
+        <v>137354</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>180798</v>
+        <v>180847</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1732428685370354</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1516036428768376</v>
+        <v>0.151408789204015</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.199298523253694</v>
+        <v>0.1993527487844038</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>299</v>
@@ -2357,19 +2357,19 @@
         <v>260263</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>230560</v>
+        <v>234392</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>291286</v>
+        <v>291120</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1385193255434607</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1227102918522165</v>
+        <v>0.1247498808579555</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1550303782511096</v>
+        <v>0.1549419393960933</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>422612</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>380282</v>
+        <v>381846</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>470578</v>
+        <v>475999</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1217107207833167</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.109519875576319</v>
+        <v>0.1099704127382188</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1355248803056016</v>
+        <v>0.1370859295228482</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>326</v>
@@ -2482,19 +2482,19 @@
         <v>258333</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>229789</v>
+        <v>229465</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>287300</v>
+        <v>287024</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07006186388183765</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06232049870688069</v>
+        <v>0.06223248539919132</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07791783656550007</v>
+        <v>0.07784308520584382</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>653</v>
@@ -2503,19 +2503,19 @@
         <v>680945</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>618222</v>
+        <v>628782</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>727311</v>
+        <v>734841</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.09511095878107073</v>
+        <v>0.09511095878107076</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08635017379640628</v>
+        <v>0.08782514011891109</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.101587162991729</v>
+        <v>0.1026388067923709</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>447172</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>399504</v>
+        <v>402113</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>501421</v>
+        <v>497291</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1287838164515823</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1150556373893631</v>
+        <v>0.1158070198858498</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.144407386509513</v>
+        <v>0.1432181535525194</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>278</v>
@@ -2553,19 +2553,19 @@
         <v>233200</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>205944</v>
+        <v>204020</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>264611</v>
+        <v>261854</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.06324547232202582</v>
+        <v>0.06324547232202583</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05585357382811186</v>
+        <v>0.05533159571853232</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07176453089854551</v>
+        <v>0.07101659778754701</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>618</v>
@@ -2574,19 +2574,19 @@
         <v>680371</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>626365</v>
+        <v>619970</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>737445</v>
+        <v>733355</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.0950308069862833</v>
+        <v>0.09503080698628333</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08748750255157318</v>
+        <v>0.08659420747242648</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1030025715526064</v>
+        <v>0.1024313543836911</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>1449952</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1385435</v>
+        <v>1382946</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1511418</v>
+        <v>1510386</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4175810804923096</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3990003932535214</v>
+        <v>0.398283458303594</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.435282939735157</v>
+        <v>0.4349859205816491</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2549</v>
@@ -2624,19 +2624,19 @@
         <v>1704398</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1653434</v>
+        <v>1652905</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1755964</v>
+        <v>1761162</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4622451899802624</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4484234743756518</v>
+        <v>0.448279954760593</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4762302302208353</v>
+        <v>0.4776401108923755</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4069</v>
@@ -2645,19 +2645,19 @@
         <v>3154350</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3078919</v>
+        <v>3066154</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3244744</v>
+        <v>3244950</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4405836163410318</v>
+        <v>0.4405836163410319</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4300477536712202</v>
+        <v>0.4282649092407784</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4532093806343515</v>
+        <v>0.4532381253354412</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>637159</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>593253</v>
+        <v>585056</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>691125</v>
+        <v>686082</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1834995114493954</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1708547974475476</v>
+        <v>0.1684940807420131</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1990414521603646</v>
+        <v>0.1975892733374405</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1172</v>
@@ -2695,19 +2695,19 @@
         <v>797143</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>755452</v>
+        <v>747832</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>842164</v>
+        <v>842050</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.21619101766105</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2048841124837767</v>
+        <v>0.2028175515943707</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.228401004612687</v>
+        <v>0.2283701150685368</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1820</v>
@@ -2716,19 +2716,19 @@
         <v>1434302</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1367400</v>
+        <v>1370936</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1498280</v>
+        <v>1506879</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2003360173643996</v>
+        <v>0.2003360173643997</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1909915262156513</v>
+        <v>0.1914854048788139</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2092720975192541</v>
+        <v>0.2104731631814233</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>515370</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>471035</v>
+        <v>471430</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>559299</v>
+        <v>558706</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1484248708233961</v>
+        <v>0.148424870823396</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1356564977112595</v>
+        <v>0.1357702950613398</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.161076045992546</v>
+        <v>0.1609053550451334</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>968</v>
@@ -2766,19 +2766,19 @@
         <v>694142</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>649887</v>
+        <v>653555</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>735788</v>
+        <v>736019</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1882564561548241</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1762541781095464</v>
+        <v>0.1772490166270207</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.199551036425179</v>
+        <v>0.1996138039182711</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1466</v>
@@ -2787,19 +2787,19 @@
         <v>1209513</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1151689</v>
+        <v>1144946</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1274753</v>
+        <v>1270059</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1689386005272144</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.160862071463199</v>
+        <v>0.1599202581040461</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1780510119632704</v>
+        <v>0.1773954398929441</v>
       </c>
     </row>
     <row r="33">
